--- a/documentation/2-planning/Test Planning/Test Timeline.xlsx
+++ b/documentation/2-planning/Test Planning/Test Timeline.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25740B24-FD2F-D541-9B83-B68C9DB07F6C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF712471-217D-6040-A1F7-E134DDE78F6D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="460" windowWidth="27720" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="460" windowWidth="27700" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -225,13 +225,25 @@
     <t>Upload Data</t>
   </si>
   <si>
-    <t>Display Dashbard</t>
-  </si>
-  <si>
-    <t>Recommend Matches</t>
-  </si>
-  <si>
     <t>Beta Test All Features</t>
+  </si>
+  <si>
+    <t>Process Match Request</t>
+  </si>
+  <si>
+    <t>Submit Match Request</t>
+  </si>
+  <si>
+    <t>Display Database</t>
+  </si>
+  <si>
+    <t>Check Database</t>
+  </si>
+  <si>
+    <t>Download Database</t>
+  </si>
+  <si>
+    <t>Delete Database</t>
   </si>
 </sst>
 </file>
@@ -755,26 +767,26 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="7" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
@@ -793,7 +805,187 @@
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="33">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -950,15 +1142,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="14"/>
-      <tableStyleElement type="headerRow" dxfId="13"/>
-      <tableStyleElement type="totalRow" dxfId="12"/>
-      <tableStyleElement type="firstColumn" dxfId="11"/>
-      <tableStyleElement type="lastColumn" dxfId="10"/>
-      <tableStyleElement type="firstRowStripe" dxfId="9"/>
-      <tableStyleElement type="secondRowStripe" dxfId="8"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="7"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="6"/>
+      <tableStyleElement type="wholeTable" dxfId="32"/>
+      <tableStyleElement type="headerRow" dxfId="31"/>
+      <tableStyleElement type="totalRow" dxfId="30"/>
+      <tableStyleElement type="firstColumn" dxfId="29"/>
+      <tableStyleElement type="lastColumn" dxfId="28"/>
+      <tableStyleElement type="firstRowStripe" dxfId="27"/>
+      <tableStyleElement type="secondRowStripe" dxfId="26"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="25"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="24"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1373,11 +1565,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AJ33"/>
+  <dimension ref="A1:AJ37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1427,78 +1619,78 @@
       <c r="B3" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="60">
+      <c r="D3" s="60"/>
+      <c r="E3" s="55">
         <f>DATE(2019, 12, 8)</f>
         <v>43807</v>
       </c>
-      <c r="F3" s="60"/>
+      <c r="F3" s="55"/>
     </row>
     <row r="4" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="58"/>
+      <c r="D4" s="60"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="54">
+      <c r="I4" s="56">
         <f>I5</f>
         <v>43808</v>
       </c>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="54">
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="56">
         <f>P5</f>
         <v>43815</v>
       </c>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="55"/>
-      <c r="T4" s="55"/>
-      <c r="U4" s="55"/>
-      <c r="V4" s="56"/>
-      <c r="W4" s="54">
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="58"/>
+      <c r="W4" s="56">
         <f>W5</f>
         <v>43822</v>
       </c>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="55"/>
-      <c r="AA4" s="55"/>
-      <c r="AB4" s="55"/>
-      <c r="AC4" s="56"/>
-      <c r="AD4" s="54">
+      <c r="X4" s="57"/>
+      <c r="Y4" s="57"/>
+      <c r="Z4" s="57"/>
+      <c r="AA4" s="57"/>
+      <c r="AB4" s="57"/>
+      <c r="AC4" s="58"/>
+      <c r="AD4" s="56">
         <f>AD5</f>
         <v>43829</v>
       </c>
-      <c r="AE4" s="55"/>
-      <c r="AF4" s="55"/>
-      <c r="AG4" s="55"/>
-      <c r="AH4" s="55"/>
-      <c r="AI4" s="55"/>
-      <c r="AJ4" s="56"/>
+      <c r="AE4" s="57"/>
+      <c r="AF4" s="57"/>
+      <c r="AG4" s="57"/>
+      <c r="AH4" s="57"/>
+      <c r="AI4" s="57"/>
+      <c r="AJ4" s="58"/>
     </row>
     <row r="5" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
       <c r="I5" s="11">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>43808</v>
@@ -1802,7 +1994,7 @@
       <c r="F8" s="20"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16" t="str">
-        <f t="shared" ref="H8:H14" si="3">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H18" si="3">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="28"/>
@@ -1845,7 +2037,7 @@
         <v>37</v>
       </c>
       <c r="D9" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="49">
         <f>Project_Start</f>
@@ -1900,7 +2092,7 @@
         <v>38</v>
       </c>
       <c r="D10" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="49">
         <f>Project_Start</f>
@@ -1947,13 +2139,13 @@
     <row r="11" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="42"/>
       <c r="B11" s="51" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C11" s="50" t="s">
         <v>37</v>
       </c>
       <c r="D11" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="49">
         <f>Project_Start</f>
@@ -2000,13 +2192,13 @@
     <row r="12" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="42"/>
       <c r="B12" s="51" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D12" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="49">
         <f>Project_Start</f>
@@ -2037,7 +2229,7 @@
       <c r="V12" s="28"/>
       <c r="W12" s="28"/>
       <c r="X12" s="28"/>
-      <c r="Y12" s="29"/>
+      <c r="Y12" s="28"/>
       <c r="Z12" s="28"/>
       <c r="AA12" s="28"/>
       <c r="AB12" s="28"/>
@@ -2053,22 +2245,27 @@
     <row r="13" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="42"/>
       <c r="B13" s="51" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="49">
+        <f>Project_Start</f>
+        <v>43807</v>
+      </c>
+      <c r="F13" s="49">
+        <f>E13+4</f>
         <v>43811</v>
       </c>
-      <c r="F13" s="49">
-        <v>43829</v>
-      </c>
       <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+      <c r="H13" s="16">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
       <c r="I13" s="28"/>
       <c r="J13" s="28"/>
       <c r="K13" s="28"/>
@@ -2099,210 +2296,262 @@
       <c r="AJ13" s="28"/>
     </row>
     <row r="14" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="42"/>
+      <c r="B14" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="21">
+        <v>1</v>
+      </c>
+      <c r="E14" s="49">
+        <f>Project_Start</f>
+        <v>43807</v>
+      </c>
+      <c r="F14" s="49">
+        <f>E14+4</f>
+        <v>43811</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="28"/>
+      <c r="AA14" s="28"/>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="28"/>
+      <c r="AD14" s="28"/>
+      <c r="AE14" s="28"/>
+      <c r="AF14" s="28"/>
+      <c r="AG14" s="28"/>
+      <c r="AH14" s="28"/>
+      <c r="AI14" s="28"/>
+      <c r="AJ14" s="28"/>
+    </row>
+    <row r="15" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="42"/>
+      <c r="B15" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="21">
+        <v>1</v>
+      </c>
+      <c r="E15" s="49">
+        <f>Project_Start</f>
+        <v>43807</v>
+      </c>
+      <c r="F15" s="49">
+        <f>E15+4</f>
+        <v>43811</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="28"/>
+      <c r="AB15" s="28"/>
+      <c r="AC15" s="28"/>
+      <c r="AD15" s="28"/>
+      <c r="AE15" s="28"/>
+      <c r="AF15" s="28"/>
+      <c r="AG15" s="28"/>
+      <c r="AH15" s="28"/>
+      <c r="AI15" s="28"/>
+      <c r="AJ15" s="28"/>
+    </row>
+    <row r="16" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="42"/>
+      <c r="B16" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="21">
+        <v>1</v>
+      </c>
+      <c r="E16" s="49">
+        <f>Project_Start</f>
+        <v>43807</v>
+      </c>
+      <c r="F16" s="49">
+        <f>E16+4</f>
+        <v>43811</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="28"/>
+      <c r="AA16" s="28"/>
+      <c r="AB16" s="28"/>
+      <c r="AC16" s="28"/>
+      <c r="AD16" s="28"/>
+      <c r="AE16" s="28"/>
+      <c r="AF16" s="28"/>
+      <c r="AG16" s="28"/>
+      <c r="AH16" s="28"/>
+      <c r="AI16" s="28"/>
+      <c r="AJ16" s="28"/>
+    </row>
+    <row r="17" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="42"/>
+      <c r="B17" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="21">
+        <v>0</v>
+      </c>
+      <c r="E17" s="49">
+        <v>43811</v>
+      </c>
+      <c r="F17" s="49">
+        <v>43829</v>
+      </c>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="28"/>
+      <c r="Y17" s="28"/>
+      <c r="Z17" s="28"/>
+      <c r="AA17" s="28"/>
+      <c r="AB17" s="28"/>
+      <c r="AC17" s="28"/>
+      <c r="AD17" s="28"/>
+      <c r="AE17" s="28"/>
+      <c r="AF17" s="28"/>
+      <c r="AG17" s="28"/>
+      <c r="AH17" s="28"/>
+      <c r="AI17" s="28"/>
+      <c r="AJ17" s="28"/>
+    </row>
+    <row r="18" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B18" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27" t="str">
+      <c r="C18" s="23"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="30"/>
-      <c r="V14" s="30"/>
-      <c r="W14" s="30"/>
-      <c r="X14" s="30"/>
-      <c r="Y14" s="30"/>
-      <c r="Z14" s="30"/>
-      <c r="AA14" s="30"/>
-      <c r="AB14" s="30"/>
-      <c r="AC14" s="30"/>
-      <c r="AD14" s="30"/>
-      <c r="AE14" s="30"/>
-      <c r="AF14" s="30"/>
-      <c r="AG14" s="30"/>
-      <c r="AH14" s="30"/>
-      <c r="AI14" s="30"/>
-      <c r="AJ14" s="28"/>
-    </row>
-    <row r="15" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="43"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15" s="5"/>
-      <c r="F15"/>
-      <c r="G15" s="6"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15"/>
-      <c r="O15"/>
-      <c r="P15"/>
-      <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
-      <c r="U15"/>
-      <c r="V15"/>
-      <c r="W15"/>
-      <c r="X15"/>
-      <c r="Y15"/>
-      <c r="Z15"/>
-      <c r="AA15"/>
-      <c r="AB15"/>
-      <c r="AC15"/>
-      <c r="AD15"/>
-      <c r="AE15"/>
-      <c r="AF15"/>
-      <c r="AG15"/>
-      <c r="AH15"/>
-      <c r="AI15"/>
-      <c r="AJ15" s="28"/>
-    </row>
-    <row r="16" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
-      <c r="B16"/>
-      <c r="C16" s="14"/>
-      <c r="D16"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="44"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
-      <c r="N16"/>
-      <c r="O16"/>
-      <c r="P16"/>
-      <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
-      <c r="T16"/>
-      <c r="U16"/>
-      <c r="V16"/>
-      <c r="W16"/>
-      <c r="X16"/>
-      <c r="Y16"/>
-      <c r="Z16"/>
-      <c r="AA16"/>
-      <c r="AB16"/>
-      <c r="AC16"/>
-      <c r="AD16"/>
-      <c r="AE16"/>
-      <c r="AF16"/>
-      <c r="AG16"/>
-      <c r="AH16"/>
-      <c r="AI16"/>
-      <c r="AJ16" s="28"/>
-    </row>
-    <row r="17" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
-      <c r="B17"/>
-      <c r="C17" s="15"/>
-      <c r="D17"/>
-      <c r="E17" s="5"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17"/>
-      <c r="P17"/>
-      <c r="Q17"/>
-      <c r="R17"/>
-      <c r="S17"/>
-      <c r="T17"/>
-      <c r="U17"/>
-      <c r="V17"/>
-      <c r="W17"/>
-      <c r="X17"/>
-      <c r="Y17"/>
-      <c r="Z17"/>
-      <c r="AA17"/>
-      <c r="AB17"/>
-      <c r="AC17"/>
-      <c r="AD17"/>
-      <c r="AE17"/>
-      <c r="AF17"/>
-      <c r="AG17"/>
-      <c r="AH17"/>
-      <c r="AI17"/>
-      <c r="AJ17" s="28"/>
-    </row>
-    <row r="18" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18" s="5"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18"/>
-      <c r="O18"/>
-      <c r="P18"/>
-      <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-      <c r="T18"/>
-      <c r="U18"/>
-      <c r="V18"/>
-      <c r="W18"/>
-      <c r="X18"/>
-      <c r="Y18"/>
-      <c r="Z18"/>
-      <c r="AA18"/>
-      <c r="AB18"/>
-      <c r="AC18"/>
-      <c r="AD18"/>
-      <c r="AE18"/>
-      <c r="AF18"/>
-      <c r="AG18"/>
-      <c r="AH18"/>
-      <c r="AI18"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="30"/>
+      <c r="Z18" s="30"/>
+      <c r="AA18" s="30"/>
+      <c r="AB18" s="30"/>
+      <c r="AC18" s="30"/>
+      <c r="AD18" s="30"/>
+      <c r="AE18" s="30"/>
+      <c r="AF18" s="30"/>
+      <c r="AG18" s="30"/>
+      <c r="AH18" s="30"/>
+      <c r="AI18" s="30"/>
       <c r="AJ18" s="28"/>
     </row>
     <row r="19" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
+      <c r="A19" s="43"/>
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19" s="5"/>
       <c r="F19"/>
-      <c r="G19"/>
+      <c r="G19" s="6"/>
       <c r="H19"/>
       <c r="I19"/>
       <c r="J19"/>
@@ -2334,14 +2583,12 @@
       <c r="AJ19" s="28"/>
     </row>
     <row r="20" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="42" t="s">
-        <v>23</v>
-      </c>
+      <c r="A20" s="42"/>
       <c r="B20"/>
-      <c r="C20"/>
+      <c r="C20" s="14"/>
       <c r="D20"/>
       <c r="E20" s="5"/>
-      <c r="F20"/>
+      <c r="F20" s="44"/>
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20"/>
@@ -2376,7 +2623,7 @@
     <row r="21" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="42"/>
       <c r="B21"/>
-      <c r="C21"/>
+      <c r="C21" s="15"/>
       <c r="D21"/>
       <c r="E21" s="5"/>
       <c r="F21"/>
@@ -2488,7 +2735,9 @@
       <c r="AJ23" s="28"/>
     </row>
     <row r="24" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="42"/>
+      <c r="A24" s="42" t="s">
+        <v>23</v>
+      </c>
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
@@ -2564,9 +2813,7 @@
       <c r="AJ25" s="28"/>
     </row>
     <row r="26" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="42" t="s">
-        <v>23</v>
-      </c>
+      <c r="A26" s="42"/>
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
@@ -2718,7 +2965,9 @@
       <c r="AJ29" s="28"/>
     </row>
     <row r="30" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="42"/>
+      <c r="A30" s="42" t="s">
+        <v>23</v>
+      </c>
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
@@ -2794,9 +3043,7 @@
       <c r="AJ31" s="28"/>
     </row>
     <row r="32" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="42" t="s">
-        <v>25</v>
-      </c>
+      <c r="A32" s="42"/>
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
@@ -2834,9 +3081,7 @@
       <c r="AJ32" s="28"/>
     </row>
     <row r="33" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="43" t="s">
-        <v>24</v>
-      </c>
+      <c r="A33" s="42"/>
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
@@ -2871,21 +3116,177 @@
       <c r="AG33"/>
       <c r="AH33"/>
       <c r="AI33"/>
-      <c r="AJ33" s="30"/>
+      <c r="AJ33" s="28"/>
+    </row>
+    <row r="34" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="42"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34" s="5"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34"/>
+      <c r="U34"/>
+      <c r="V34"/>
+      <c r="W34"/>
+      <c r="X34"/>
+      <c r="Y34"/>
+      <c r="Z34"/>
+      <c r="AA34"/>
+      <c r="AB34"/>
+      <c r="AC34"/>
+      <c r="AD34"/>
+      <c r="AE34"/>
+      <c r="AF34"/>
+      <c r="AG34"/>
+      <c r="AH34"/>
+      <c r="AI34"/>
+      <c r="AJ34" s="28"/>
+    </row>
+    <row r="35" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="42"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35" s="5"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="V35"/>
+      <c r="W35"/>
+      <c r="X35"/>
+      <c r="Y35"/>
+      <c r="Z35"/>
+      <c r="AA35"/>
+      <c r="AB35"/>
+      <c r="AC35"/>
+      <c r="AD35"/>
+      <c r="AE35"/>
+      <c r="AF35"/>
+      <c r="AG35"/>
+      <c r="AH35"/>
+      <c r="AI35"/>
+      <c r="AJ35" s="28"/>
+    </row>
+    <row r="36" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36" s="5"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36"/>
+      <c r="W36"/>
+      <c r="X36"/>
+      <c r="Y36"/>
+      <c r="Z36"/>
+      <c r="AA36"/>
+      <c r="AB36"/>
+      <c r="AC36"/>
+      <c r="AD36"/>
+      <c r="AE36"/>
+      <c r="AF36"/>
+      <c r="AG36"/>
+      <c r="AH36"/>
+      <c r="AI36"/>
+      <c r="AJ36" s="28"/>
+    </row>
+    <row r="37" spans="1:36" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37" s="5"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
+      <c r="W37"/>
+      <c r="X37"/>
+      <c r="Y37"/>
+      <c r="Z37"/>
+      <c r="AA37"/>
+      <c r="AB37"/>
+      <c r="AC37"/>
+      <c r="AD37"/>
+      <c r="AE37"/>
+      <c r="AF37"/>
+      <c r="AG37"/>
+      <c r="AH37"/>
+      <c r="AI37"/>
+      <c r="AJ37" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
-    <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D8 D11:D14">
-    <cfRule type="dataBar" priority="15">
+  <conditionalFormatting sqref="D7:D8 D12 D15:D18">
+    <cfRule type="dataBar" priority="36">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -2898,34 +3299,34 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:AI14">
-    <cfRule type="expression" dxfId="5" priority="34">
+  <conditionalFormatting sqref="I5:AI10 I12:AI12 I15:AI18">
+    <cfRule type="expression" dxfId="23" priority="55">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:AI14">
-    <cfRule type="expression" dxfId="4" priority="28">
+  <conditionalFormatting sqref="I7:AI10 I12:AI12 I15:AI18">
+    <cfRule type="expression" dxfId="22" priority="49">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="50" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ5:AJ33">
-    <cfRule type="expression" dxfId="2" priority="36">
+  <conditionalFormatting sqref="AJ5:AJ10 AJ12 AJ15:AJ37">
+    <cfRule type="expression" dxfId="20" priority="57">
       <formula>AND(TODAY()&gt;=AJ$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ7:AJ33">
-    <cfRule type="expression" dxfId="1" priority="39">
+  <conditionalFormatting sqref="AJ7:AJ10 AJ12 AJ15:AJ37">
+    <cfRule type="expression" dxfId="19" priority="60">
       <formula>AND(task_start&lt;=AJ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AJ$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="61" stopIfTrue="1">
       <formula>AND(task_end&gt;=AJ$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D10">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="22">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -2936,6 +3337,126 @@
           <x14:id>{40ADC486-B983-F240-B08E-EA7E345ED681}</x14:id>
         </ext>
       </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="dataBar" priority="15">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0D0FF410-A08D-C14A-8C3D-FFCE571DB8E6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11:AI11">
+    <cfRule type="expression" dxfId="17" priority="18">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11:AI11">
+    <cfRule type="expression" dxfId="16" priority="16">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="17" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ11">
+    <cfRule type="expression" dxfId="14" priority="19">
+      <formula>AND(TODAY()&gt;=AJ$5,TODAY()&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ11">
+    <cfRule type="expression" dxfId="13" priority="20">
+      <formula>AND(task_start&lt;=AJ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AJ$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="21" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AJ$5,task_start&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{492E3119-3E0D-E74B-AC53-11FBBF15C21D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:AI13">
+    <cfRule type="expression" dxfId="11" priority="11">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:AI13">
+    <cfRule type="expression" dxfId="10" priority="9">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="10" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ13">
+    <cfRule type="expression" dxfId="8" priority="12">
+      <formula>AND(TODAY()&gt;=AJ$5,TODAY()&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ13">
+    <cfRule type="expression" dxfId="7" priority="13">
+      <formula>AND(task_start&lt;=AJ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AJ$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="14" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AJ$5,task_start&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{75D15BB9-55EC-D343-8F01-E9D6DF349B73}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14:AI14">
+    <cfRule type="expression" dxfId="5" priority="4">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14:AI14">
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ14">
+    <cfRule type="expression" dxfId="2" priority="5">
+      <formula>AND(TODAY()&gt;=AJ$5,TODAY()&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ14">
+    <cfRule type="expression" dxfId="1" priority="6">
+      <formula>AND(task_start&lt;=AJ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AJ$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="7" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AJ$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -2965,7 +3486,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D8 D11:D14</xm:sqref>
+          <xm:sqref>D7:D8 D12 D15:D18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{40ADC486-B983-F240-B08E-EA7E345ED681}">
@@ -2981,6 +3502,51 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>D9:D10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0D0FF410-A08D-C14A-8C3D-FFCE571DB8E6}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{492E3119-3E0D-E74B-AC53-11FBBF15C21D}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{75D15BB9-55EC-D343-8F01-E9D6DF349B73}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D14</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
